--- a/LSTM & GRU Results.xlsx
+++ b/LSTM & GRU Results.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="LSTM" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="LSTM &amp; GRU" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+  <si>
+    <t>LSTM &amp; GRU For Anomaly detection</t>
+  </si>
+  <si>
+    <t>1. We used the sequence length of 10 (tuned value) for LSTM &amp; GRU. For training we have created overlapping sequences(with window size 1).</t>
+  </si>
+  <si>
+    <t>2. After creating overlapping sequences, we are scaling the input data using MinMaxScaler.</t>
+  </si>
+  <si>
+    <t>3. During training phase, we are calculating the MSE and model's accuracy with test data allocated from the training data.</t>
+  </si>
+  <si>
+    <t>4. Once training is completed, we save the model and scaler for using with faulty data for anomaly detection.</t>
+  </si>
+  <si>
+    <t>5. We are using the trained model and scaler for our test data. For faulty data, we create non overlapping sequences with sequence length of 10(same as used for training phase).</t>
+  </si>
+  <si>
+    <t>6. We have two different model (one which predicts only next ID and the other one which predicts next tuple (ID,timestamp)).</t>
+  </si>
+  <si>
+    <t>7. For ID alone, the model will predict next ID and then we calculate the errors by comparing with y_test. If errors is 0, then prediction is correct, else prediction is wrong.</t>
+  </si>
+  <si>
+    <t>8. If prediction is wrong, then we store that complete sequence like ((seq_start_id, seq_end_id), (timestamp_start_value, timestamp_end_value), trace_file_name).</t>
+  </si>
+  <si>
+    <t>9. For ID and timestamp as tuple model, we compare both ID and timestamp. So here if both are exact match, then prediction is correct, else if either of the value is not matching then we follow same as we did for ID model.</t>
+  </si>
+  <si>
+    <t>10. Once the detection list is ready, then we compare it with the ground truth for finding tp, fp, fn.</t>
+  </si>
+  <si>
+    <t>11. With these tp, fp,fn we calculate the precision, recall and F1 score which is the crucial parameters for evaulating the model's performance.</t>
+  </si>
+  <si>
+    <t>12. Below table gives the results for three applications for both ID and tuple scenario for LSTM &amp; GRU.</t>
+  </si>
+  <si>
+    <t>Parameters used while training the Model</t>
+  </si>
+  <si>
+    <t>Anomaly Detection</t>
+  </si>
+  <si>
+    <t>Training Model</t>
+  </si>
+  <si>
+    <t>One sample Time</t>
+  </si>
   <si>
     <t>Application</t>
   </si>
@@ -19,6 +71,12 @@
     <t>Methods</t>
   </si>
   <si>
+    <t>Layers</t>
+  </si>
+  <si>
+    <t>Dropout</t>
+  </si>
+  <si>
     <t>Sequence Length</t>
   </si>
   <si>
@@ -46,6 +104,9 @@
     <t>LSTM with ID standalone model</t>
   </si>
   <si>
+    <t>128,64,32</t>
+  </si>
+  <si>
     <t>LSTM with ID timestamp model</t>
   </si>
   <si>
@@ -68,13 +129,28 @@
   </si>
   <si>
     <t>Lora Ducy</t>
+  </si>
+  <si>
+    <t>Forecaster with ID alone model</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Timestamp Diff</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -83,11 +159,18 @@
     </font>
     <font>
       <b/>
+      <sz val="14.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -102,8 +185,38 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -144,23 +257,50 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -170,6 +310,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -379,390 +523,788 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="32.88"/>
-    <col customWidth="1" min="3" max="3" width="16.25"/>
-    <col customWidth="1" min="4" max="4" width="13.75"/>
-    <col customWidth="1" min="5" max="5" width="8.5"/>
-    <col customWidth="1" min="8" max="8" width="18.88"/>
-    <col customWidth="1" min="9" max="9" width="16.75"/>
+    <col customWidth="1" min="3" max="5" width="16.25"/>
+    <col customWidth="1" min="6" max="6" width="13.75"/>
+    <col customWidth="1" min="7" max="7" width="8.5"/>
+    <col customWidth="1" min="10" max="10" width="18.88"/>
+    <col customWidth="1" min="11" max="11" width="16.75"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="11">
         <v>10.0</v>
       </c>
-      <c r="D8" s="3">
+      <c r="F18" s="11">
         <v>93.13</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G18" s="11">
         <v>0.5957</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H18" s="11">
         <v>0.7368</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I18" s="11">
         <v>0.6588</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J18" s="11">
         <v>631.71</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K18" s="11">
         <v>4.58</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3">
+    <row r="19">
+      <c r="A19" s="12"/>
+      <c r="B19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="11">
         <v>10.0</v>
       </c>
-      <c r="D9" s="3">
+      <c r="F19" s="11">
         <v>10.71</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G19" s="11">
         <v>0.1444</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H19" s="11">
         <v>0.9455</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I19" s="11">
         <v>0.2506</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J19" s="11">
         <v>613.0</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K19" s="11">
         <v>4.09</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3">
+    <row r="23">
+      <c r="A23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="11">
         <v>10.0</v>
       </c>
-      <c r="D13" s="3">
+      <c r="F23" s="11">
         <v>93.4</v>
       </c>
-      <c r="E13" s="3">
+      <c r="G23" s="11">
         <v>0.6357</v>
       </c>
-      <c r="F13" s="3">
+      <c r="H23" s="11">
         <v>0.7387</v>
       </c>
-      <c r="G13" s="3">
+      <c r="I23" s="11">
         <v>0.6833</v>
       </c>
-      <c r="H13" s="3">
+      <c r="J23" s="11">
         <v>715.24</v>
       </c>
-      <c r="I13" s="3">
+      <c r="K23" s="11">
         <v>4.58</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3">
+    <row r="24">
+      <c r="A24" s="12"/>
+      <c r="B24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="11">
         <v>10.0</v>
       </c>
-      <c r="D14" s="3">
+      <c r="F24" s="11">
         <v>0.04</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G24" s="11">
         <v>0.1447</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H24" s="11">
         <v>0.945</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I24" s="11">
         <v>0.2509</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J24" s="11">
         <v>655.99</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K24" s="11">
         <v>5.51</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="3">
+    <row r="28">
+      <c r="A28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="E28" s="11">
         <v>10.0</v>
       </c>
-      <c r="D18" s="3">
+      <c r="F28" s="11">
         <v>38.15</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G28" s="11">
         <v>0.0381</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H28" s="11">
         <v>0.9873</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I28" s="11">
         <v>0.0734</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J28" s="11">
         <v>672.44</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K28" s="11">
         <v>9.33</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3">
+    <row r="29">
+      <c r="A29" s="12"/>
+      <c r="B29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="11">
         <v>10.0</v>
       </c>
-      <c r="D19" s="3">
+      <c r="F29" s="11">
         <v>0.03</v>
       </c>
-      <c r="E19" s="3">
+      <c r="G29" s="11">
         <v>0.035</v>
       </c>
-      <c r="F19" s="3">
+      <c r="H29" s="11">
         <v>0.9912</v>
       </c>
-      <c r="G19" s="3">
+      <c r="I29" s="11">
         <v>0.069</v>
       </c>
-      <c r="H19" s="3">
+      <c r="J29" s="11">
         <v>596.73</v>
       </c>
-      <c r="I19" s="3">
+      <c r="K29" s="11">
         <v>9.19</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="3">
+    <row r="32">
+      <c r="A32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="E32" s="11">
         <v>10.0</v>
       </c>
-      <c r="D22" s="3">
+      <c r="F32" s="11">
         <v>86.62</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G32" s="11">
         <v>0.09</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H32" s="11">
         <v>0.8889</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I32" s="11">
         <v>0.1658</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J32" s="11">
         <v>722.86</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K32" s="11">
         <v>8.42</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="3">
+    <row r="33">
+      <c r="A33" s="12"/>
+      <c r="B33" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="E33" s="11">
         <v>10.0</v>
       </c>
-      <c r="D23" s="3">
+      <c r="F33" s="11">
         <v>19.58</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G33" s="11">
         <v>0.03</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H33" s="11">
         <v>0.9909</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I33" s="11">
         <v>0.0703</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J33" s="11">
         <v>768.06</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K33" s="11">
         <v>8.7</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="3">
+    <row r="37">
+      <c r="A37" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="E37" s="11">
         <v>10.0</v>
       </c>
-      <c r="D27" s="3">
+      <c r="F37" s="11">
         <v>38.61</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G37" s="11">
         <v>0.05</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H37" s="11">
         <v>0.8571</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I37" s="11">
         <v>0.0996</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J37" s="11">
         <v>636.76</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K37" s="11">
         <v>4.43</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="4"/>
-      <c r="B28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="3">
+    <row r="38">
+      <c r="A38" s="12"/>
+      <c r="B38" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="E38" s="11">
         <v>10.0</v>
       </c>
-      <c r="D28" s="3">
+      <c r="F38" s="11">
         <v>0.09</v>
       </c>
-      <c r="E28" s="3">
+      <c r="G38" s="11">
         <v>0.0354</v>
       </c>
-      <c r="F28" s="3">
+      <c r="H38" s="11">
         <v>1.0</v>
       </c>
-      <c r="G28" s="3">
+      <c r="I38" s="11">
         <v>0.0685</v>
       </c>
-      <c r="H28" s="3">
+      <c r="J38" s="11">
         <v>705.05</v>
       </c>
-      <c r="I28" s="3">
+      <c r="K38" s="11">
         <v>4.49</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="3">
+    <row r="41">
+      <c r="A41" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="E41" s="11">
         <v>10.0</v>
       </c>
-      <c r="D31" s="3">
+      <c r="F41" s="11">
         <v>50.82</v>
       </c>
-      <c r="E31" s="3">
+      <c r="G41" s="11">
         <v>0.07</v>
       </c>
-      <c r="F31" s="3">
+      <c r="H41" s="11">
         <v>1.0</v>
       </c>
-      <c r="G31" s="3">
+      <c r="I41" s="11">
         <v>0.1379</v>
       </c>
-      <c r="H31" s="3">
+      <c r="J41" s="11">
         <v>672.64</v>
       </c>
-      <c r="I31" s="3">
+      <c r="K41" s="11">
         <v>4.42</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="4"/>
-      <c r="B32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="3">
+    <row r="42">
+      <c r="A42" s="12"/>
+      <c r="B42" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="E42" s="11">
         <v>10.0</v>
       </c>
-      <c r="D32" s="3">
+      <c r="F42" s="11">
         <v>0.06</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G42" s="11">
         <v>0.032</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H42" s="11">
         <v>1.0</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I42" s="11">
         <v>0.0621</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J42" s="11">
         <v>680.76</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K42" s="11">
         <v>4.76</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11">
+        <v>50.0</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11">
+        <v>0.129</v>
+      </c>
+      <c r="H46" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="I46" s="11">
+        <v>0.2286</v>
+      </c>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="15"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="11">
+        <v>50.0</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="11">
+        <v>0.1348</v>
+      </c>
+      <c r="H48" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0.2376</v>
+      </c>
+      <c r="J48" s="16"/>
+      <c r="K48" s="11">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="11">
+        <v>50.0</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="11">
+        <v>0.1864</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0.9167</v>
+      </c>
+      <c r="I50" s="11">
+        <v>0.3099</v>
+      </c>
+      <c r="J50" s="16"/>
+      <c r="K50" s="11">
+        <v>1.78</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A13:A14"/>
+  <mergeCells count="8">
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A41:A42"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A31:A32"/>
   </mergeCells>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="12">
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>102.0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>105.0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>200.0</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>